--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579642.9800400218</v>
+        <v>576361.3121643837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514385</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5477185.456223347</v>
+        <v>5477185.456223348</v>
       </c>
     </row>
     <row r="11">
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +725,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>133.3034891412076</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>155.9380286161328</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,13 +1260,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1412,23 +1412,23 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V11" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>86.97637841063961</v>
       </c>
     </row>
     <row r="13">
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>82.46119763909357</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>82.46119763909334</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.88143347497265</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="19">
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V20" t="n">
-        <v>200.3360962888294</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.014288877659</v>
+        <v>230.2038249569696</v>
       </c>
       <c r="Y20" t="n">
         <v>241.014288877659</v>
@@ -2211,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,10 +2223,10 @@
         <v>241.014288877659</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353827</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2327,61 +2327,61 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036357</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>230.2038249569696</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>37.18582309281536</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>168.0500184703205</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>190.3453970742848</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>118.3634851578962</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3263,31 +3263,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H35" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>116.3250987681108</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>85.49838238928882</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>44.22592450511138</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>29.79900896488246</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6032867115066</v>
+        <v>52.06288988838709</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>601.1835482155025</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
         <v>262.7299197543128</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4650,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D9" t="n">
-        <v>259.0600686093459</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E9" t="n">
-        <v>259.0600686093459</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4978,25 +4978,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>632.7534511790215</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5361,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5452,10 +5452,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748834</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729607</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729607</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>789.604126229509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>640.6697165682577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>196.1668781723027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>82.79774257988207</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L18" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>473.4149733950735</v>
+      </c>
+      <c r="N18" t="n">
+        <v>473.4149733950735</v>
+      </c>
+      <c r="O18" t="n">
+        <v>712.019119383956</v>
+      </c>
+      <c r="P18" t="n">
+        <v>894.6625969973069</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="R18" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="S18" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T18" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U18" t="n">
+        <v>735.8335372470253</v>
+      </c>
+      <c r="V18" t="n">
+        <v>500.6814290152826</v>
+      </c>
+      <c r="W18" t="n">
+        <v>257.2326523711826</v>
+      </c>
+      <c r="X18" t="n">
+        <v>49.38115216564972</v>
+      </c>
+      <c r="Y18" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="L18" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="M18" t="n">
-        <v>234.8108274061909</v>
-      </c>
-      <c r="N18" t="n">
-        <v>473.4149733950733</v>
-      </c>
-      <c r="O18" t="n">
-        <v>712.0191193839557</v>
-      </c>
-      <c r="P18" t="n">
-        <v>894.6625969973067</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="R18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="S18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="T18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="U18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="V18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="W18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="X18" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>964.057155510636</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5698,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.057155510636</v>
       </c>
       <c r="T20" t="n">
-        <v>964.057155510636</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="U20" t="n">
-        <v>964.057155510636</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950733</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O21" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
         <v>964.057155510636</v>
@@ -5859,19 +5859,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="T21" t="n">
-        <v>964.057155510636</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565421</v>
+        <v>533.6469426057911</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247994</v>
+        <v>298.4948343740484</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994836</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5944,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553884</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +5999,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200813</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>205.7769902389543</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>56.84258057770299</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>56.84258057770299</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363992</v>
+        <v>65.60123993063792</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363992</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252816</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O24" t="n">
-        <v>851.810101014164</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P24" t="n">
         <v>964.057155510636</v>
@@ -6090,28 +6090,28 @@
         <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S24" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T24" t="n">
-        <v>964.057155510636</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="U24" t="n">
-        <v>964.057155510636</v>
+        <v>432.4774131586768</v>
       </c>
       <c r="V24" t="n">
-        <v>964.057155510636</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="W24" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051032</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401493</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,7 +6315,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="U27" t="n">
-        <v>914.2479596093278</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V27" t="n">
-        <v>679.0958513775852</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W27" t="n">
-        <v>435.6470747334852</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>19.28114311021272</v>
       </c>
-      <c r="H29" t="n">
-        <v>19.28114311021275</v>
-      </c>
       <c r="I29" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021275</v>
@@ -6506,7 +6506,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6552,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>313.2932483084066</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>138.8402190272796</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>138.8402190272796</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>851.810101014164</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.810101014164</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>914.2479596093278</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S33" t="n">
-        <v>914.2479596093278</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T33" t="n">
-        <v>914.2479596093278</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U33" t="n">
-        <v>914.2479596093278</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>521.0535470733605</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>313.2932483084066</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C35" t="n">
-        <v>72.23626279480629</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="D35" t="n">
-        <v>72.23626279480629</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="E35" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G35" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759812</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,40 +7026,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960492</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7172,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7190,34 +7190,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>720.608378866536</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>105.6431455236358</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990951</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879775</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768599</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>481.6187813086577</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>273.8584825437038</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>477.159602222436</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>233.710825578336</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>233.710825578336</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7421,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T41" t="n">
-        <v>761.6974622895962</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U41" t="n">
-        <v>518.2486856454962</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V41" t="n">
-        <v>274.7999090013961</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>439.5188066588198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>439.5188066588198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>292.9842486857048</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>154.2534232683203</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L42" t="n">
+        <v>374.6018090363992</v>
+      </c>
+      <c r="M42" t="n">
+        <v>613.2059550252816</v>
+      </c>
+      <c r="N42" t="n">
+        <v>613.2059550252816</v>
+      </c>
+      <c r="O42" t="n">
+        <v>712.0191193839557</v>
+      </c>
+      <c r="P42" t="n">
+        <v>894.6625969973067</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="R42" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="S42" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="T42" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="U42" t="n">
+        <v>735.8335372470251</v>
+      </c>
+      <c r="V42" t="n">
+        <v>500.6814290152824</v>
+      </c>
+      <c r="W42" t="n">
+        <v>257.2326523711824</v>
+      </c>
+      <c r="X42" t="n">
+        <v>49.38115216564955</v>
+      </c>
+      <c r="Y42" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="L42" t="n">
-        <v>249.2442489785619</v>
-      </c>
-      <c r="M42" t="n">
-        <v>487.8483949674443</v>
-      </c>
-      <c r="N42" t="n">
-        <v>726.4525409563269</v>
-      </c>
-      <c r="O42" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="P42" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="R42" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="S42" t="n">
-        <v>790.6398109613051</v>
-      </c>
-      <c r="T42" t="n">
-        <v>588.4532163200711</v>
-      </c>
-      <c r="U42" t="n">
-        <v>588.4532163200711</v>
-      </c>
-      <c r="V42" t="n">
-        <v>588.4532163200711</v>
-      </c>
-      <c r="W42" t="n">
-        <v>588.4532163200711</v>
-      </c>
-      <c r="X42" t="n">
-        <v>588.4532163200711</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7594,25 +7594,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7664,34 +7664,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>352.9294114938717</v>
+        <v>619.4388494194217</v>
       </c>
       <c r="C45" t="n">
-        <v>178.4763822127447</v>
+        <v>619.4388494194217</v>
       </c>
       <c r="D45" t="n">
-        <v>178.4763822127447</v>
+        <v>470.5044397581704</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,49 +7728,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M45" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N45" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="W45" t="n">
-        <v>728.9050472788936</v>
+        <v>619.4388494194217</v>
       </c>
       <c r="X45" t="n">
-        <v>728.9050472788936</v>
+        <v>619.4388494194217</v>
       </c>
       <c r="Y45" t="n">
-        <v>521.1447485139397</v>
+        <v>619.4388494194217</v>
       </c>
     </row>
     <row r="46">
@@ -7837,13 +7837,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361377</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515267</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221034</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661622</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9732,7 @@
         <v>383.6105333221034</v>
       </c>
       <c r="P24" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9963,10 +9963,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22601,10 +22601,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22613,7 +22613,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22644,7 +22644,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>72.37920663609674</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>1.707051839268132</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,16 +22917,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22990,7 +22990,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>399.0973997097602</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,13 +23148,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23239,7 +23239,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,13 +23343,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>118.7063173666647</v>
       </c>
     </row>
     <row r="13">
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>140.6346519250378</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>126.6730335290854</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,19 +23622,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,25 +23777,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>140.634651925038</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.3313640301775</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247591</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>26.51519937644243</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23865,19 +23865,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="19">
@@ -23938,13 +23938,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V20" t="n">
-        <v>127.4161621813055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>139.5272757214994</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783946</v>
@@ -24099,10 +24099,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,10 +24111,10 @@
         <v>10.68069428326061</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>170.3657197299392</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686751</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.2884486374761</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,19 +24257,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316529</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8833893005685</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>64.75056867910482</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>55.3580723357268</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24695,7 +24695,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,10 +24813,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192.3884445891958</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>39.28159529750477</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.84673021034784</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25151,31 +25151,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H35" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020495</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,13 +25287,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>87.21011659902692</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,19 +25628,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,22 +25679,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="42">
@@ -25710,22 +25710,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>68.00951973138508</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124219</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,10 +25919,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W44" t="n">
         <v>108.226679839754</v>
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04179374389434543</v>
+        <v>105.5821905670139</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20952.65529224539</v>
+        <v>-21344.88553779095</v>
       </c>
       <c r="C6" t="n">
-        <v>59816.77623930234</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="D6" t="n">
-        <v>59816.77623930232</v>
+        <v>59424.54599375678</v>
       </c>
       <c r="E6" t="n">
-        <v>93444.37623930235</v>
+        <v>93052.14599375681</v>
       </c>
       <c r="F6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="G6" t="n">
-        <v>93444.37623930231</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="H6" t="n">
-        <v>93444.37623930231</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="I6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="J6" t="n">
-        <v>30384.43364019608</v>
+        <v>29992.20339465053</v>
       </c>
       <c r="K6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="L6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="M6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="N6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="O6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="P6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375674</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26802,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.014288877659</v>
@@ -26817,19 +26817,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.055561526184</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
         <v>181.8947995804632</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141194</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681934</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.014288877659</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628807</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
         <v>241.014288877659</v>
@@ -36452,7 +36452,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="P24" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O27" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="O27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>91.0829537758999</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
